--- a/res/insn_groups.xlsx
+++ b/res/insn_groups.xlsx
@@ -32,6 +32,7 @@
             <sz val="10"/>
             <rFont val="DejaVu Sans"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">8 bit op code</t>
         </r>
@@ -44,6 +45,7 @@
             <sz val="10"/>
             <rFont val="DejaVu Sans"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">8 bit opcode</t>
         </r>
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="195">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -648,11 +650,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -669,102 +672,13 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Noto Sans Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Noto Sans Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Noto Sans Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Noto Sans Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Noto Sans Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Noto Sans Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Noto Sans Devanagari"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="14">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -787,7 +701,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
     <fill>
@@ -797,7 +711,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -805,23 +719,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -845,29 +744,13 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -875,46 +758,38 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -926,10 +801,10 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -941,7 +816,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -957,7 +832,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -986,8 +861,8 @@
   </sheetPr>
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C50" activeCellId="0" sqref="C50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L38" activeCellId="0" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1955,9 +1830,7 @@
       <c r="B50" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="C50" s="6"/>
       <c r="D50" s="6" t="s">
         <v>23</v>
       </c>
@@ -2192,95 +2065,95 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="s">
+    <row r="62" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62" s="7" t="n">
         <v>60</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D62" s="2" t="s">
+      <c r="C62" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D62" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G62" s="7" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63" s="8" t="n">
         <v>61</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D63" s="2" t="s">
+      <c r="C63" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F63" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="G63" s="7" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64" s="8" t="n">
         <v>62</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="C64" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="F64" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="G64" s="7" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65" s="8" t="n">
         <v>63</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D65" s="2" t="s">
+      <c r="C65" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F65" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G65" s="7" t="s">
         <v>132</v>
       </c>
     </row>

--- a/res/insn_groups.xlsx
+++ b/res/insn_groups.xlsx
@@ -861,8 +861,8 @@
   </sheetPr>
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L38" activeCellId="0" sqref="L38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A57" activeCellId="0" sqref="A57:G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1963,61 +1963,61 @@
       <c r="G56" s="5"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57" s="8" t="n">
         <v>55</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58" s="8" t="n">
         <v>56</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59" s="8" t="n">
         <v>57</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
@@ -2066,94 +2066,94 @@
       </c>
     </row>
     <row r="62" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B62" s="7" t="n">
+      <c r="B62" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D62" s="7" t="s">
+      <c r="C62" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F62" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="G62" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B63" s="8" t="n">
+      <c r="B63" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D63" s="7" t="s">
+      <c r="C63" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F63" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="G63" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B64" s="8" t="n">
+      <c r="B64" s="0" t="n">
         <v>62</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D64" s="7" t="s">
+      <c r="C64" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="G64" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B65" s="8" t="n">
+      <c r="B65" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="C65" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D65" s="7" t="s">
+      <c r="C65" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="G65" s="2" t="s">
         <v>132</v>
       </c>
     </row>
